--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>33800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>33800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>43200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43432,6 +43432,41 @@
         <v>43200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43502,6 +43502,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,78 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,76 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>86600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>86600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>48500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>48500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43856,6 +43856,41 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,76 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>145600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         <v>145600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>119500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,41 @@
         <v>119500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>247000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91351,6 +91351,41 @@
         <v>247000</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>227400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91386,6 +91386,41 @@
         <v>227400</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>349800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91421,6 +91421,41 @@
         <v>349800</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>60100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91456,6 +91456,41 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>233800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91491,6 +91491,41 @@
         <v>233800</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2598" t="n">
+        <v>123500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2598"/>
+  <dimension ref="A1:I2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91526,6 +91526,41 @@
         <v>123500</v>
       </c>
     </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2599" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2599" t="n">
+        <v>195400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2599"/>
+  <dimension ref="A1:I2600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91561,6 +91561,41 @@
         <v>195400</v>
       </c>
     </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2600" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2600" t="n">
+        <v>365700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91596,6 +91596,41 @@
         <v>365700</v>
       </c>
     </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2601" t="n">
+        <v>239400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91631,6 +91631,41 @@
         <v>239400</v>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2602" t="n">
+        <v>62900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91666,6 +91666,41 @@
         <v>62900</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>191300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91701,6 +91701,41 @@
         <v>191300</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>90500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2604"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91736,6 +91736,41 @@
         <v>90500</v>
       </c>
     </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>157500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91771,6 +91771,41 @@
         <v>157500</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>147600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2606"/>
+  <dimension ref="A1:I2607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91806,6 +91806,41 @@
         <v>147600</v>
       </c>
     </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2607" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2607" t="n">
+        <v>228100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6009.xlsx
+++ b/data/6009.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2607"/>
+  <dimension ref="A1:I2608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91841,6 +91841,41 @@
         <v>228100</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>P&amp;O</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2608" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2608" t="n">
+        <v>254700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
